--- a/여행_MON.xlsx
+++ b/여행_MON.xlsx
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="193" uniqueCount="155">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="217" uniqueCount="177">
   <si>
     <t>FCO</t>
   </si>
@@ -627,6 +627,84 @@
   </si>
   <si>
     <t>라스페찌아( 친퀘테레 )</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>02월11일</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>08시39분</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>로마이동</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>12시</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>ROME FIUMICINO 공항이동</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>15시</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>AZ0076</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>17시</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>스페인도착</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">16.20유로 </t>
+  </si>
+  <si>
+    <t>06:53 Firenze S. M. Novella</t>
+  </si>
+  <si>
+    <t>Arrival</t>
+  </si>
+  <si>
+    <t>08:06 Pisa Centrale</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.00유로 </t>
+  </si>
+  <si>
+    <t>09:49 Pisa Centrale</t>
+  </si>
+  <si>
+    <t>10:39 La Spezia Centrale</t>
+  </si>
+  <si>
+    <t>21.00유로</t>
+  </si>
+  <si>
+    <t>20:06 La Spezia Centrale</t>
+  </si>
+  <si>
+    <t>22:02 Firenze S. M. Novella</t>
+  </si>
+  <si>
+    <t>포로 로마노 구경</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>07시00분</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>check out</t>
     <phoneticPr fontId="9" type="noConversion"/>
   </si>
 </sst>
@@ -832,7 +910,7 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="31">
+  <cellXfs count="32">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="3" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -870,6 +948,7 @@
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="20" fontId="11" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="49">
     <cellStyle name="쉼표 [0]" xfId="1" builtinId="6"/>
@@ -1013,13 +1092,13 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>69</xdr:row>
+      <xdr:row>70</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>8</xdr:col>
       <xdr:colOff>755993</xdr:colOff>
-      <xdr:row>95</xdr:row>
+      <xdr:row>96</xdr:row>
       <xdr:rowOff>104775</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -1057,13 +1136,13 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>101</xdr:row>
+      <xdr:row>102</xdr:row>
       <xdr:rowOff>1</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>8</xdr:col>
       <xdr:colOff>760096</xdr:colOff>
-      <xdr:row>126</xdr:row>
+      <xdr:row>127</xdr:row>
       <xdr:rowOff>57151</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -2305,10 +2384,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C132"/>
+  <dimension ref="A1:C151"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A94" workbookViewId="0">
-      <selection activeCell="D133" sqref="D133"/>
+    <sheetView tabSelected="1" topLeftCell="A58" workbookViewId="0">
+      <selection activeCell="J61" sqref="J61:J62"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.25"/>
@@ -2422,133 +2501,237 @@
         <v>127</v>
       </c>
     </row>
+    <row r="50" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A50" s="25">
+        <v>42041</v>
+      </c>
+    </row>
+    <row r="51" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A51" s="26" t="s">
+        <v>129</v>
+      </c>
+      <c r="B51" s="26" t="s">
+        <v>130</v>
+      </c>
+      <c r="C51" s="26" t="s">
+        <v>131</v>
+      </c>
+    </row>
     <row r="52" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A52" s="25">
-        <v>42041</v>
-      </c>
-    </row>
-    <row r="53" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A53" s="26" t="s">
+      <c r="A52" s="26" t="s">
+        <v>132</v>
+      </c>
+      <c r="B52" s="26" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="54" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A54" s="25">
+        <v>42042</v>
+      </c>
+    </row>
+    <row r="55" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A55" s="26" t="s">
         <v>129</v>
       </c>
-      <c r="B53" s="26" t="s">
-        <v>130</v>
-      </c>
-      <c r="C53" s="26" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="54" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A54" s="26" t="s">
-        <v>132</v>
-      </c>
-      <c r="B54" s="26" t="s">
-        <v>130</v>
+      <c r="B55" s="26" t="s">
+        <v>133</v>
+      </c>
+      <c r="C55" s="26" t="s">
+        <v>134</v>
       </c>
     </row>
     <row r="56" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A56" s="25">
-        <v>42042</v>
+      <c r="B56" s="30" t="s">
+        <v>135</v>
       </c>
     </row>
     <row r="57" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A57" s="26" t="s">
-        <v>129</v>
-      </c>
-      <c r="B57" s="26" t="s">
-        <v>133</v>
-      </c>
-      <c r="C57" s="26" t="s">
-        <v>134</v>
+      <c r="B57" s="30" t="s">
+        <v>136</v>
       </c>
     </row>
     <row r="58" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B58" s="30" t="s">
-        <v>135</v>
-      </c>
-    </row>
-    <row r="59" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B59" s="30" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
     </row>
     <row r="60" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B60" s="30" t="s">
-        <v>137</v>
+      <c r="A60" s="26" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="61" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A61" s="26" t="s">
+        <v>175</v>
+      </c>
+      <c r="B61" s="26" t="s">
+        <v>176</v>
       </c>
     </row>
     <row r="62" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A62" s="26" t="s">
-        <v>138</v>
+        <v>129</v>
+      </c>
+      <c r="B62" s="26" t="s">
+        <v>139</v>
       </c>
     </row>
     <row r="63" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A63" s="26" t="s">
-        <v>129</v>
-      </c>
       <c r="B63" s="26" t="s">
-        <v>139</v>
+        <v>142</v>
       </c>
     </row>
     <row r="64" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B64" s="26" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
     </row>
     <row r="65" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B65" s="26" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
     </row>
     <row r="66" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B66" s="26" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
     </row>
     <row r="67" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B67" s="26" t="s">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="69" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A69" s="26" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="70" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A70" s="26" t="s">
         <v>140</v>
       </c>
-      <c r="B69" s="26" t="s">
+      <c r="B70" s="26" t="s">
         <v>141</v>
-      </c>
-    </row>
-    <row r="99" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A99" s="26" t="s">
-        <v>148</v>
       </c>
     </row>
     <row r="100" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A100" s="26" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="101" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A101" s="26" t="s">
         <v>149</v>
       </c>
-      <c r="B100" s="26" t="s">
+      <c r="B101" s="26" t="s">
         <v>150</v>
       </c>
     </row>
-    <row r="101" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="B101" s="26" t="s">
+    <row r="102" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B102" s="26" t="s">
         <v>151</v>
       </c>
     </row>
-    <row r="129" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A129" s="26" t="s">
+    <row r="130" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A130" s="26" t="s">
         <v>152</v>
       </c>
     </row>
-    <row r="130" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="B130" s="26" t="s">
+    <row r="131" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B131" s="26" t="s">
         <v>153</v>
       </c>
     </row>
-    <row r="132" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B132" s="26" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="133" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B133" s="26" t="s">
+        <v>165</v>
+      </c>
+      <c r="C133" s="26" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="134" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B134" s="26" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="136" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B136" s="26" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="137" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B137" s="26" t="s">
+        <v>169</v>
+      </c>
+      <c r="C137" s="26" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="138" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B138" s="26" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="140" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B140" s="26" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="141" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B141" s="26" t="s">
+        <v>172</v>
+      </c>
+      <c r="C141" s="26" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="142" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B142" s="26" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="144" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B144" s="26" t="s">
         <v>154</v>
+      </c>
+    </row>
+    <row r="146" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A146" s="26" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="147" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A147" s="31" t="s">
+        <v>156</v>
+      </c>
+      <c r="B147" s="26" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="149" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A149" s="26" t="s">
+        <v>158</v>
+      </c>
+      <c r="B149" s="26" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="150" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A150" s="26" t="s">
+        <v>160</v>
+      </c>
+      <c r="B150" s="26" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="151" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A151" s="26" t="s">
+        <v>162</v>
+      </c>
+      <c r="B151" s="26" t="s">
+        <v>163</v>
       </c>
     </row>
   </sheetData>
